--- a/Assets/Resources/TaobaoProduct/TaobaoProductList.xlsx
+++ b/Assets/Resources/TaobaoProduct/TaobaoProductList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\master\CSCI529\Assets\Resources\TaobaoProduct\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38248B6B-EBB5-4804-92A8-DDFC1248A1AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{176FB8EB-57F2-4761-94BD-2BCB960924B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4170" yWindow="3555" windowWidth="21600" windowHeight="11385" xr2:uid="{557A37E5-C72A-451B-B47A-05FD7F1E4A48}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>Index</t>
   </si>
@@ -82,6 +82,18 @@
   </si>
   <si>
     <t>将一张女装大佬加入手牌中</t>
+  </si>
+  <si>
+    <t>哈哈哈</t>
+  </si>
+  <si>
+    <t>哈哈哈哈哈啊哈</t>
+  </si>
+  <si>
+    <t>哈哈哈哈哈哈哈哈哈</t>
+  </si>
+  <si>
+    <t>c0029</t>
   </si>
 </sst>
 </file>
@@ -441,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3973E8E3-EE47-4C27-9681-6154B3458055}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -536,6 +548,58 @@
       </c>
       <c r="H3" s="1">
         <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="1">
+        <v>200</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="1">
+        <v>200</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="1">
+        <v>6</v>
+      </c>
+      <c r="H5" s="1">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/TaobaoProduct/TaobaoProductList.xlsx
+++ b/Assets/Resources/TaobaoProduct/TaobaoProductList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\master\CSCI529\Assets\Resources\TaobaoProduct\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{176FB8EB-57F2-4761-94BD-2BCB960924B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C774BB5-D530-473D-A728-02E2B4BF1166}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4170" yWindow="3555" windowWidth="21600" windowHeight="11385" xr2:uid="{557A37E5-C72A-451B-B47A-05FD7F1E4A48}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{557A37E5-C72A-451B-B47A-05FD7F1E4A48}"/>
   </bookViews>
   <sheets>
     <sheet name="Entities" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
   <si>
     <t>Index</t>
   </si>
@@ -94,6 +94,75 @@
   </si>
   <si>
     <t>c0029</t>
+  </si>
+  <si>
+    <t>ShuxingRelate</t>
+  </si>
+  <si>
+    <t>ShuxingValue</t>
+  </si>
+  <si>
+    <t>jishu</t>
+  </si>
+  <si>
+    <t>LevelRemove</t>
+  </si>
+  <si>
+    <t>祖安宝典</t>
+  </si>
+  <si>
+    <t>金牌讲师合集</t>
+  </si>
+  <si>
+    <t>因为你不会，所以你才会</t>
+  </si>
+  <si>
+    <t>技术增加5点</t>
+  </si>
+  <si>
+    <t>魅力增加5点</t>
+  </si>
+  <si>
+    <t>抗压增加5点</t>
+  </si>
+  <si>
+    <t>口才增加5点</t>
+  </si>
+  <si>
+    <t>一切都要从一朵花说起</t>
+  </si>
+  <si>
+    <t>我们遇到什么困难也不要怕</t>
+  </si>
+  <si>
+    <t>奥里给之魂</t>
+  </si>
+  <si>
+    <t>kangya</t>
+  </si>
+  <si>
+    <t>koucai</t>
+  </si>
+  <si>
+    <t>才艺增加5点</t>
+  </si>
+  <si>
+    <t>caiyi</t>
+  </si>
+  <si>
+    <t>白色背带裤</t>
+  </si>
+  <si>
+    <t>当这个音乐响起的时候，就突然学会了唱，跳，rap，篮球</t>
+  </si>
+  <si>
+    <t>荒古宝典</t>
+  </si>
+  <si>
+    <t>增幅王，强化王，黑铁太上皇</t>
+  </si>
+  <si>
+    <t>waiguan</t>
   </si>
 </sst>
 </file>
@@ -453,26 +522,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3973E8E3-EE47-4C27-9681-6154B3458055}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="14.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="57.28515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="38.42578125" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="7" width="14.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" customWidth="1"/>
+    <col min="9" max="10" width="17.85546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="18.42578125" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -492,13 +562,22 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -517,14 +596,17 @@
       <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="1">
-        <v>1</v>
-      </c>
-      <c r="H2" s="1">
+      <c r="I2" s="1">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K2" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -543,14 +625,17 @@
       <c r="F3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="1">
-        <v>1</v>
-      </c>
-      <c r="H3" s="1">
+      <c r="I3" s="1">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K3" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -569,14 +654,17 @@
       <c r="F4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="1">
-        <v>1</v>
-      </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K4" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -595,11 +683,174 @@
       <c r="F5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="1">
+      <c r="I5" s="1">
         <v>6</v>
       </c>
-      <c r="H5" s="1">
+      <c r="J5" s="1">
         <v>4</v>
+      </c>
+      <c r="K5" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9">
+        <v>5</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10">
+        <v>5</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/TaobaoProduct/TaobaoProductList.xlsx
+++ b/Assets/Resources/TaobaoProduct/TaobaoProductList.xlsx
@@ -1,40 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\master\CSCI529\Assets\Resources\TaobaoProduct\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C774BB5-D530-473D-A728-02E2B4BF1166}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{557A37E5-C72A-451B-B47A-05FD7F1E4A48}"/>
+    <workbookView windowWidth="26940" windowHeight="12870"/>
   </bookViews>
   <sheets>
     <sheet name="Entities" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="98">
   <si>
     <t>Index</t>
   </si>
@@ -42,48 +23,57 @@
     <t>Name</t>
   </si>
   <si>
+    <t>Desp</t>
+  </si>
+  <si>
+    <t>EffectDesp</t>
+  </si>
+  <si>
     <t>Cost</t>
   </si>
   <si>
     <t>CardRelate</t>
   </si>
   <si>
+    <t>ShuxingRelate</t>
+  </si>
+  <si>
+    <t>ShuxingValue</t>
+  </si>
+  <si>
     <t>LeftInStock</t>
   </si>
   <si>
+    <t>LevelUnlock</t>
+  </si>
+  <si>
+    <t>LevelRemove</t>
+  </si>
+  <si>
+    <t>女神异闻录5</t>
+  </si>
+  <si>
     <t>非常好玩的一款游戏，人见人爱</t>
   </si>
   <si>
+    <t>将一张深夜老司机加入手牌中</t>
+  </si>
+  <si>
     <t>c0014</t>
   </si>
   <si>
-    <t>LevelUnlock</t>
-  </si>
-  <si>
-    <t>Desp</t>
-  </si>
-  <si>
-    <t>女神异闻录5</t>
-  </si>
-  <si>
     <t>JK制服</t>
   </si>
   <si>
     <t>萌妹子的最佳搭配，当然，大佬也是</t>
   </si>
   <si>
+    <t>将一张女装大佬加入手牌中</t>
+  </si>
+  <si>
     <t>c0030</t>
   </si>
   <si>
-    <t>EffectDesp</t>
-  </si>
-  <si>
-    <t>将一张深夜老司机加入手牌中</t>
-  </si>
-  <si>
-    <t>将一张女装大佬加入手牌中</t>
-  </si>
-  <si>
     <t>哈哈哈</t>
   </si>
   <si>
@@ -96,52 +86,58 @@
     <t>c0029</t>
   </si>
   <si>
-    <t>ShuxingRelate</t>
-  </si>
-  <si>
-    <t>ShuxingValue</t>
+    <t>金牌讲师合集</t>
+  </si>
+  <si>
+    <t>因为你不会，所以你才会</t>
+  </si>
+  <si>
+    <t>口才增加5点</t>
+  </si>
+  <si>
+    <t>koucai</t>
+  </si>
+  <si>
+    <t>奥里给之魂</t>
+  </si>
+  <si>
+    <t>我们遇到什么困难也不要怕</t>
+  </si>
+  <si>
+    <t>魅力增加5点</t>
+  </si>
+  <si>
+    <t>waiguan</t>
+  </si>
+  <si>
+    <t>祖安宝典</t>
+  </si>
+  <si>
+    <t>一切都要从一朵花说起</t>
+  </si>
+  <si>
+    <t>抗压增加5点</t>
+  </si>
+  <si>
+    <t>kangya</t>
+  </si>
+  <si>
+    <t>荒古宝典</t>
+  </si>
+  <si>
+    <t>增幅王，强化王，黑铁太上皇</t>
+  </si>
+  <si>
+    <t>技术增加5点</t>
   </si>
   <si>
     <t>jishu</t>
   </si>
   <si>
-    <t>LevelRemove</t>
-  </si>
-  <si>
-    <t>祖安宝典</t>
-  </si>
-  <si>
-    <t>金牌讲师合集</t>
-  </si>
-  <si>
-    <t>因为你不会，所以你才会</t>
-  </si>
-  <si>
-    <t>技术增加5点</t>
-  </si>
-  <si>
-    <t>魅力增加5点</t>
-  </si>
-  <si>
-    <t>抗压增加5点</t>
-  </si>
-  <si>
-    <t>口才增加5点</t>
-  </si>
-  <si>
-    <t>一切都要从一朵花说起</t>
-  </si>
-  <si>
-    <t>我们遇到什么困难也不要怕</t>
-  </si>
-  <si>
-    <t>奥里给之魂</t>
-  </si>
-  <si>
-    <t>kangya</t>
-  </si>
-  <si>
-    <t>koucai</t>
+    <t>白色背带裤</t>
+  </si>
+  <si>
+    <t>当这个音乐响起的时候，就突然学会了唱，跳，rap，篮球</t>
   </si>
   <si>
     <t>才艺增加5点</t>
@@ -150,50 +146,543 @@
     <t>caiyi</t>
   </si>
   <si>
-    <t>白色背带裤</t>
-  </si>
-  <si>
-    <t>当这个音乐响起的时候，就突然学会了唱，跳，rap，篮球</t>
-  </si>
-  <si>
-    <t>荒古宝典</t>
-  </si>
-  <si>
-    <t>增幅王，强化王，黑铁太上皇</t>
-  </si>
-  <si>
-    <t>waiguan</t>
+    <t>洪荒巨剑</t>
+  </si>
+  <si>
+    <t>洪荒时代的新手剑  白瞎了这名字</t>
+  </si>
+  <si>
+    <t>攻击力增加10</t>
+  </si>
+  <si>
+    <t>gongjili</t>
+  </si>
+  <si>
+    <t>生锈的铁刀</t>
+  </si>
+  <si>
+    <t>刀如其名，能增加你丢丢的攻击力</t>
+  </si>
+  <si>
+    <t>攻击力增加1</t>
+  </si>
+  <si>
+    <t>增幅法典</t>
+  </si>
+  <si>
+    <t>少年缺蓝吗，来本小黄书吧</t>
+  </si>
+  <si>
+    <t>mp回复50</t>
+  </si>
+  <si>
+    <t>mp</t>
+  </si>
+  <si>
+    <t>蟠桃</t>
+  </si>
+  <si>
+    <t>西王母的蟠桃，想吃吗</t>
+  </si>
+  <si>
+    <t>hp回复100%</t>
+  </si>
+  <si>
+    <t>hp</t>
+  </si>
+  <si>
+    <t>无色水晶</t>
+  </si>
+  <si>
+    <t>能增加武器攻击力的水晶</t>
+  </si>
+  <si>
+    <t>攻击力5</t>
+  </si>
+  <si>
+    <t>比基尼</t>
+  </si>
+  <si>
+    <t>性感的泳衣，游泳必须漂亮</t>
+  </si>
+  <si>
+    <t>装备后可以下水</t>
+  </si>
+  <si>
+    <t>法拉利</t>
+  </si>
+  <si>
+    <t>炫酷的外表，奔放的心，拉风座驾，值得拥有</t>
+  </si>
+  <si>
+    <t>移速增加10</t>
+  </si>
+  <si>
+    <t>yisu</t>
+  </si>
+  <si>
+    <t>幻影斗篷</t>
+  </si>
+  <si>
+    <t>看不见我 看不见我 看不见我</t>
+  </si>
+  <si>
+    <t>装备后隐身</t>
+  </si>
+  <si>
+    <t>AJ11</t>
+  </si>
+  <si>
+    <t>打不到我，打不到我，打不到我</t>
+  </si>
+  <si>
+    <t>闪避增加10</t>
+  </si>
+  <si>
+    <t>shanbi</t>
+  </si>
+  <si>
+    <t>步步生莲</t>
+  </si>
+  <si>
+    <t>一步一朵莲花，好看吧</t>
+  </si>
+  <si>
+    <t>脚印特效</t>
+  </si>
+  <si>
+    <t>黄牛</t>
+  </si>
+  <si>
+    <t>喝黄牛提神又醒脑</t>
+  </si>
+  <si>
+    <t>精神增加5</t>
+  </si>
+  <si>
+    <t>jingshen</t>
+  </si>
+  <si>
+    <t>大哥大</t>
+  </si>
+  <si>
+    <t>别过来，再过来我摇人了啊</t>
+  </si>
+  <si>
+    <t>召唤队友进场</t>
+  </si>
+  <si>
+    <t>六个核弹</t>
+  </si>
+  <si>
+    <t>缺啥补啥，智商不够，多喝六个核弹</t>
+  </si>
+  <si>
+    <t>智力增加5</t>
+  </si>
+  <si>
+    <t>zhili</t>
+  </si>
+  <si>
+    <t>喇叭裤</t>
+  </si>
+  <si>
+    <t>这是一条正经的裤子，别想着能防御什么</t>
+  </si>
+  <si>
+    <t>防御增加1</t>
+  </si>
+  <si>
+    <t>fangyu</t>
+  </si>
+  <si>
+    <t>原谅帽</t>
+  </si>
+  <si>
+    <t>还能怎么办，当然是选择原谅他啊</t>
+  </si>
+  <si>
+    <t>雨伞</t>
+  </si>
+  <si>
+    <t>除了挡雨啥都不能干</t>
+  </si>
+  <si>
+    <t>挡雨</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -201,25 +690,313 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -268,7 +1045,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -301,26 +1078,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -353,23 +1113,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -511,38 +1254,33 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3973E8E3-EE47-4C27-9681-6154B3458055}">
-  <dimension ref="A1:K10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="20.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="57.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="38.42578125" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" customWidth="1"/>
-    <col min="9" max="10" width="17.85546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="18.42578125" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.14166666666667" style="1"/>
+    <col min="2" max="2" width="20.1416666666667" style="1" customWidth="1"/>
+    <col min="3" max="3" width="57.2833333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="38.425" customWidth="1"/>
+    <col min="5" max="5" width="9.14166666666667" style="1"/>
+    <col min="6" max="7" width="14.425" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.425" customWidth="1"/>
+    <col min="9" max="10" width="17.8583333333333" style="1" customWidth="1"/>
+    <col min="11" max="11" width="18.425" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.14166666666667" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -550,51 +1288,51 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E2" s="1">
         <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="I2" s="1">
         <v>1</v>
@@ -606,24 +1344,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E3" s="1">
         <v>200</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I3" s="1">
         <v>1</v>
@@ -635,24 +1373,24 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E4" s="1">
         <v>200</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I4" s="1">
         <v>1</v>
@@ -664,24 +1402,24 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E5" s="1">
         <v>200</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I5" s="1">
         <v>6</v>
@@ -693,24 +1431,24 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="H6">
         <v>5</v>
@@ -725,24 +1463,24 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H7">
         <v>5</v>
@@ -757,18 +1495,18 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
@@ -789,24 +1527,24 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="H9">
         <v>5</v>
@@ -821,24 +1559,24 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H10">
         <v>5</v>
@@ -853,26 +1591,505 @@
         <v>30</v>
       </c>
     </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="1">
+        <v>100</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11">
+        <v>10</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1">
+        <v>5</v>
+      </c>
+      <c r="K11" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="1">
+        <v>10</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12" s="3">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1</v>
+      </c>
+      <c r="K12" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="1">
+        <v>5</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H13">
+        <v>50</v>
+      </c>
+      <c r="I13" s="3">
+        <v>1</v>
+      </c>
+      <c r="J13" s="3">
+        <v>1</v>
+      </c>
+      <c r="K13" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="1">
+        <v>100</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H14" s="2">
+        <v>1</v>
+      </c>
+      <c r="I14" s="3">
+        <v>1</v>
+      </c>
+      <c r="J14" s="3">
+        <v>1</v>
+      </c>
+      <c r="K14" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="1">
+        <v>50</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15">
+        <v>5</v>
+      </c>
+      <c r="I15" s="3">
+        <v>1</v>
+      </c>
+      <c r="J15" s="3">
+        <v>1</v>
+      </c>
+      <c r="K15" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="1">
+        <v>100</v>
+      </c>
+      <c r="I16" s="3">
+        <v>1</v>
+      </c>
+      <c r="J16" s="3">
+        <v>1</v>
+      </c>
+      <c r="K16" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H17">
+        <v>10</v>
+      </c>
+      <c r="I17" s="3">
+        <v>1</v>
+      </c>
+      <c r="J17" s="3">
+        <v>1</v>
+      </c>
+      <c r="K17" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I18" s="1">
+        <v>1</v>
+      </c>
+      <c r="J18" s="1">
+        <v>1</v>
+      </c>
+      <c r="K18" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" t="s">
+        <v>73</v>
+      </c>
+      <c r="E19" s="1">
+        <v>500</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H19">
+        <v>10</v>
+      </c>
+      <c r="I19" s="1">
+        <v>1</v>
+      </c>
+      <c r="J19" s="1">
+        <v>1</v>
+      </c>
+      <c r="K19" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" t="s">
+        <v>77</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I20" s="1">
+        <v>1</v>
+      </c>
+      <c r="J20" s="1">
+        <v>1</v>
+      </c>
+      <c r="K20" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" t="s">
+        <v>80</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H21">
+        <v>5</v>
+      </c>
+      <c r="I21" s="3">
+        <v>1</v>
+      </c>
+      <c r="J21" s="3">
+        <v>1</v>
+      </c>
+      <c r="K21" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D22" t="s">
+        <v>84</v>
+      </c>
+      <c r="E22" s="1">
+        <v>500</v>
+      </c>
+      <c r="I22" s="3">
+        <v>1</v>
+      </c>
+      <c r="J22" s="3">
+        <v>1</v>
+      </c>
+      <c r="K22" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D23" t="s">
+        <v>87</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H23">
+        <v>5</v>
+      </c>
+      <c r="I23" s="3">
+        <v>1</v>
+      </c>
+      <c r="J23" s="3">
+        <v>1</v>
+      </c>
+      <c r="K23" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D24" t="s">
+        <v>91</v>
+      </c>
+      <c r="E24" s="1">
+        <v>10</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24" s="3">
+        <v>1</v>
+      </c>
+      <c r="J24" s="3">
+        <v>1</v>
+      </c>
+      <c r="K24" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E25" s="1">
+        <v>10</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25" s="1">
+        <v>1</v>
+      </c>
+      <c r="J25" s="1">
+        <v>1</v>
+      </c>
+      <c r="K25" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D26" t="s">
+        <v>97</v>
+      </c>
+      <c r="I26" s="1">
+        <v>1</v>
+      </c>
+      <c r="K26" s="1">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9311896-AA38-4B41-A979-BCB5735C859E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="A1:XFD1048576"/>
+      <selection activeCell="G13" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="2" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="3" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="1" s="1" customFormat="1" ht="15.75"/>
+    <row r="2" s="1" customFormat="1" ht="15.75"/>
+    <row r="3" s="1" customFormat="1" ht="15.75"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Assets/Resources/TaobaoProduct/TaobaoProductList.xlsx
+++ b/Assets/Resources/TaobaoProduct/TaobaoProductList.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\master\CSCI529\Assets\Resources\TaobaoProduct\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FE22302-28CC-4841-829D-C50C3856E2B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="26940" windowHeight="12870"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Entities" sheetId="1" r:id="rId1"/>
@@ -15,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="105">
   <si>
     <t>Index</t>
   </si>
@@ -309,380 +315,58 @@
   </si>
   <si>
     <t>挡雨</t>
+  </si>
+  <si>
+    <t>Picture</t>
+  </si>
+  <si>
+    <t>tb0000</t>
+  </si>
+  <si>
+    <t>tb0001</t>
+  </si>
+  <si>
+    <t>tb0006</t>
+  </si>
+  <si>
+    <t>tb0004</t>
+  </si>
+  <si>
+    <t>tb0005</t>
+  </si>
+  <si>
+    <t>tb0007</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -690,251 +374,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -942,61 +384,17 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1254,33 +652,33 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:K26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="9.14166666666667" style="1"/>
-    <col min="2" max="2" width="20.1416666666667" style="1" customWidth="1"/>
-    <col min="3" max="3" width="57.2833333333333" style="1" customWidth="1"/>
-    <col min="4" max="4" width="38.425" customWidth="1"/>
-    <col min="5" max="5" width="9.14166666666667" style="1"/>
-    <col min="6" max="7" width="14.425" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.425" customWidth="1"/>
-    <col min="9" max="10" width="17.8583333333333" style="1" customWidth="1"/>
-    <col min="11" max="11" width="18.425" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.14166666666667" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="3" width="20.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="57.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="38.42578125" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" customWidth="1"/>
+    <col min="10" max="11" width="17.85546875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="18.42578125" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1288,34 +686,37 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:12">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1323,28 +724,31 @@
         <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="1">
-        <v>10</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="1">
+        <v>100</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="1">
-        <v>1</v>
-      </c>
       <c r="J2" s="1">
+        <v>1</v>
+      </c>
+      <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="K2" s="1">
+      <c r="L2" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1352,86 +756,89 @@
         <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F3" s="1">
         <v>200</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="1">
-        <v>1</v>
-      </c>
       <c r="J3" s="1">
+        <v>1</v>
+      </c>
+      <c r="K3" s="1">
         <v>0</v>
       </c>
-      <c r="K3" s="1">
+      <c r="L3" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:12">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F4" s="1">
         <v>200</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="1">
-        <v>1</v>
-      </c>
       <c r="J4" s="1">
+        <v>1</v>
+      </c>
+      <c r="K4" s="1">
         <v>5</v>
       </c>
-      <c r="K4" s="1">
+      <c r="L4" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F5" s="1">
         <v>200</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="1">
+      <c r="J5" s="1">
         <v>6</v>
       </c>
-      <c r="J5" s="1">
+      <c r="K5" s="1">
         <v>4</v>
       </c>
-      <c r="K5" s="1">
+      <c r="L5" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1439,31 +846,34 @@
         <v>23</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1" t="s">
+      <c r="F6" s="1">
+        <v>50</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>5</v>
       </c>
-      <c r="I6" s="1">
-        <v>1</v>
-      </c>
       <c r="J6" s="1">
+        <v>1</v>
+      </c>
+      <c r="K6" s="1">
         <v>0</v>
       </c>
-      <c r="K6" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="L6" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1471,31 +881,34 @@
         <v>27</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7">
+      <c r="F7" s="1">
+        <v>50</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7">
         <v>5</v>
       </c>
-      <c r="I7" s="1">
-        <v>1</v>
-      </c>
       <c r="J7" s="1">
+        <v>1</v>
+      </c>
+      <c r="K7" s="1">
         <v>0</v>
       </c>
-      <c r="K7" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="L7" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1503,31 +916,34 @@
         <v>31</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="G8" s="1" t="s">
+      <c r="F8" s="1">
+        <v>50</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>5</v>
       </c>
-      <c r="I8" s="1">
-        <v>1</v>
-      </c>
       <c r="J8" s="1">
+        <v>1</v>
+      </c>
+      <c r="K8" s="1">
         <v>0</v>
       </c>
-      <c r="K8" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="L8" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1535,561 +951,561 @@
         <v>35</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="1">
-        <v>1</v>
-      </c>
-      <c r="G9" s="1" t="s">
+      <c r="F9" s="1">
+        <v>50</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>5</v>
       </c>
-      <c r="I9" s="1">
-        <v>1</v>
-      </c>
       <c r="J9" s="1">
+        <v>1</v>
+      </c>
+      <c r="K9" s="1">
         <v>0</v>
       </c>
-      <c r="K9" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="L9" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="1">
-        <v>1</v>
-      </c>
-      <c r="G10" s="1" t="s">
+      <c r="F10" s="1">
+        <v>200</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>5</v>
       </c>
-      <c r="I10" s="1">
-        <v>1</v>
-      </c>
       <c r="J10" s="1">
+        <v>1</v>
+      </c>
+      <c r="K10" s="1">
         <v>0</v>
       </c>
-      <c r="K10" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="L10" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="1">
+      <c r="F11" s="1">
         <v>100</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>10</v>
       </c>
-      <c r="I11" s="1">
-        <v>1</v>
-      </c>
       <c r="J11" s="1">
+        <v>1</v>
+      </c>
+      <c r="K11" s="1">
         <v>5</v>
       </c>
-      <c r="K11" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="L11" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>49</v>
       </c>
-      <c r="E12" s="1">
+      <c r="F12" s="1">
         <v>10</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12" s="3">
-        <v>1</v>
-      </c>
-      <c r="J12" s="1">
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12" s="3">
         <v>1</v>
       </c>
       <c r="K12" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+        <v>1</v>
+      </c>
+      <c r="L12" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>52</v>
       </c>
-      <c r="E13" s="1">
+      <c r="F13" s="1">
         <v>5</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>50</v>
       </c>
-      <c r="I13" s="3">
-        <v>1</v>
-      </c>
       <c r="J13" s="3">
         <v>1</v>
       </c>
-      <c r="K13" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="K13" s="3">
+        <v>1</v>
+      </c>
+      <c r="L13" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>56</v>
       </c>
-      <c r="E14" s="1">
+      <c r="F14" s="1">
         <v>100</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="H14" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H14" s="2">
-        <v>1</v>
-      </c>
-      <c r="I14" s="3">
+      <c r="I14" s="2">
         <v>1</v>
       </c>
       <c r="J14" s="3">
         <v>1</v>
       </c>
-      <c r="K14" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="K14" s="3">
+        <v>1</v>
+      </c>
+      <c r="L14" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>60</v>
       </c>
-      <c r="E15" s="1">
+      <c r="F15" s="1">
         <v>50</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>5</v>
       </c>
-      <c r="I15" s="3">
-        <v>1</v>
-      </c>
       <c r="J15" s="3">
         <v>1</v>
       </c>
-      <c r="K15" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="K15" s="3">
+        <v>1</v>
+      </c>
+      <c r="L15" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>63</v>
       </c>
-      <c r="E16" s="1">
+      <c r="F16" s="1">
         <v>100</v>
       </c>
-      <c r="I16" s="3">
-        <v>1</v>
-      </c>
       <c r="J16" s="3">
         <v>1</v>
       </c>
-      <c r="K16" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="K16" s="3">
+        <v>1</v>
+      </c>
+      <c r="L16" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>66</v>
       </c>
-      <c r="E17" s="1">
+      <c r="F17" s="1">
         <v>1000</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="H17" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>10</v>
       </c>
-      <c r="I17" s="3">
-        <v>1</v>
-      </c>
       <c r="J17" s="3">
         <v>1</v>
       </c>
-      <c r="K17" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="K17" s="3">
+        <v>1</v>
+      </c>
+      <c r="L17" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>70</v>
       </c>
-      <c r="E18" s="1">
+      <c r="F18" s="1">
         <v>1000</v>
       </c>
-      <c r="I18" s="1">
-        <v>1</v>
-      </c>
       <c r="J18" s="1">
         <v>1</v>
       </c>
       <c r="K18" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+        <v>1</v>
+      </c>
+      <c r="L18" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>73</v>
       </c>
-      <c r="E19" s="1">
+      <c r="F19" s="1">
         <v>500</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="H19" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>10</v>
       </c>
-      <c r="I19" s="1">
-        <v>1</v>
-      </c>
       <c r="J19" s="1">
         <v>1</v>
       </c>
       <c r="K19" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+        <v>1</v>
+      </c>
+      <c r="L19" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>77</v>
       </c>
-      <c r="E20" s="1">
+      <c r="F20" s="1">
         <v>1000</v>
       </c>
-      <c r="I20" s="1">
-        <v>1</v>
-      </c>
       <c r="J20" s="1">
         <v>1</v>
       </c>
       <c r="K20" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+        <v>1</v>
+      </c>
+      <c r="L20" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>80</v>
       </c>
-      <c r="E21" s="1">
-        <v>1</v>
-      </c>
-      <c r="G21" s="1" t="s">
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>5</v>
       </c>
-      <c r="I21" s="3">
-        <v>1</v>
-      </c>
       <c r="J21" s="3">
         <v>1</v>
       </c>
-      <c r="K21" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="K21" s="3">
+        <v>1</v>
+      </c>
+      <c r="L21" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>84</v>
       </c>
-      <c r="E22" s="1">
+      <c r="F22" s="1">
         <v>500</v>
       </c>
-      <c r="I22" s="3">
-        <v>1</v>
-      </c>
       <c r="J22" s="3">
         <v>1</v>
       </c>
-      <c r="K22" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="K22" s="3">
+        <v>1</v>
+      </c>
+      <c r="L22" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>87</v>
       </c>
-      <c r="E23" s="1">
-        <v>1</v>
-      </c>
-      <c r="G23" s="1" t="s">
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
+      <c r="H23" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>5</v>
       </c>
-      <c r="I23" s="3">
-        <v>1</v>
-      </c>
       <c r="J23" s="3">
         <v>1</v>
       </c>
-      <c r="K23" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="K23" s="3">
+        <v>1</v>
+      </c>
+      <c r="L23" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>91</v>
       </c>
-      <c r="E24" s="1">
+      <c r="F24" s="1">
         <v>10</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="H24" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H24">
-        <v>1</v>
-      </c>
-      <c r="I24" s="3">
+      <c r="I24">
         <v>1</v>
       </c>
       <c r="J24" s="3">
         <v>1</v>
       </c>
-      <c r="K24" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+      <c r="K24" s="3">
+        <v>1</v>
+      </c>
+      <c r="L24" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>91</v>
       </c>
-      <c r="E25" s="1">
+      <c r="F25" s="1">
         <v>10</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="H25" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H25">
-        <v>1</v>
-      </c>
-      <c r="I25" s="1">
+      <c r="I25">
         <v>1</v>
       </c>
       <c r="J25" s="1">
         <v>1</v>
       </c>
       <c r="K25" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
+        <v>1</v>
+      </c>
+      <c r="L25" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>97</v>
       </c>
-      <c r="I26" s="1">
-        <v>1</v>
-      </c>
-      <c r="K26" s="1">
+      <c r="J26" s="1">
+        <v>1</v>
+      </c>
+      <c r="L26" s="1">
         <v>30</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="G13" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15.75"/>
     <row r="2" s="1" customFormat="1" ht="15.75"/>
     <row r="3" s="1" customFormat="1" ht="15.75"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>